--- a/Colaboraciones plan de ventas/parametros.xlsx
+++ b/Colaboraciones plan de ventas/parametros.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Programa Optimizar/Colaboraciones plan de ventas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Plan de ventas/Colaboraciones plan de ventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A7AD9-5E6E-EC49-A291-076EAF450F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6847D3-E020-2C47-8934-2C51BA24252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="1520" windowWidth="28080" windowHeight="17020" xr2:uid="{58DE5B90-D3BA-B14C-A471-51A814BBEA3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{58DE5B90-D3BA-B14C-A471-51A814BBEA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de venta" sheetId="1" r:id="rId1"/>
     <sheet name="Parametros" sheetId="2" r:id="rId2"/>
+    <sheet name="Congelado y consolidación" sheetId="3" r:id="rId3"/>
+    <sheet name="Mes ponderación" sheetId="5" r:id="rId4"/>
+    <sheet name="Ponderación cumplimiento produc" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t xml:space="preserve">Util% </t>
   </si>
@@ -85,6 +88,63 @@
   </si>
   <si>
     <t>Agrosuper Shanghai</t>
+  </si>
+  <si>
+    <t>Preferiado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina </t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Días de congelado</t>
+  </si>
+  <si>
+    <t>Días de consolidación</t>
+  </si>
+  <si>
+    <t>Sabados</t>
+  </si>
+  <si>
+    <t>Cerdo</t>
+  </si>
+  <si>
+    <t>Pollo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Pavo</t>
+  </si>
+  <si>
+    <t>Elaborado</t>
+  </si>
+  <si>
+    <t>Ponderación</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Meses seleccionados</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Mes seleccionado</t>
+  </si>
+  <si>
+    <t>Año seleccionado</t>
   </si>
 </sst>
 </file>
@@ -94,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +199,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -236,21 +311,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -258,9 +369,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -576,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A06F95-D732-3B4C-9D58-1B1DC866AB43}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,136 +721,128 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
         <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12">
-        <v>10000</v>
+      <c r="C4" s="11">
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>24000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>24000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10">
-        <v>10000</v>
+      <c r="C7" s="9">
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>24000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
         <v>24000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>24000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>24000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>24000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79FE90F-DF87-6C46-B87E-8FB16F921771}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,7 +858,553 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3A54AE-D4C2-164F-89A3-B26DFA3EA839}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="22">
+        <v>6</v>
+      </c>
+      <c r="D2" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="23">
+        <f>SUM(C2:D2)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="19">
+        <f t="shared" ref="E3:E21" si="0">SUM(C3:D3)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="G5">
+        <v>0.67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20">
+        <v>6</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="G6">
+        <v>0.33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="20">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="20">
+        <v>4</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="20">
+        <v>6</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C626A-D864-9A48-B475-DC81597B7ACA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEADF6A-9BB0-F348-97E5-335341F831BD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Colaboraciones plan de ventas/parametros.xlsx
+++ b/Colaboraciones plan de ventas/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Plan de ventas/Colaboraciones plan de ventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6847D3-E020-2C47-8934-2C51BA24252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59213EF1-856C-D34E-B113-183D38B2F8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{58DE5B90-D3BA-B14C-A471-51A814BBEA3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" activeTab="1" xr2:uid="{58DE5B90-D3BA-B14C-A471-51A814BBEA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de venta" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t xml:space="preserve">Util% </t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Año seleccionado</t>
+  </si>
+  <si>
+    <t>Marzo</t>
   </si>
 </sst>
 </file>
@@ -353,9 +356,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,6 +388,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -715,116 +723,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
         <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>24000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>24000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>24000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
         <v>24000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>24000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>24000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>24000</v>
       </c>
     </row>
@@ -842,7 +850,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,7 +862,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="28">
         <v>0.35</v>
       </c>
     </row>
@@ -862,15 +870,15 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="B2" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="27">
         <v>2023</v>
       </c>
     </row>
@@ -899,42 +907,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22">
-        <v>6</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="C2" s="21">
+        <v>6</v>
+      </c>
+      <c r="D2" s="21">
         <v>2.5</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <f>SUM(C2:D2)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -946,13 +954,13 @@
       <c r="D3">
         <v>2.5</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E21" si="0">SUM(C3:D3)</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -964,13 +972,13 @@
       <c r="D4">
         <v>2.5</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -982,7 +990,7 @@
       <c r="D5">
         <v>2.5</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
@@ -994,19 +1002,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20">
-        <v>6</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="19">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19">
         <v>2.5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
@@ -1018,7 +1026,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1030,13 +1038,13 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1048,13 +1056,13 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1066,13 +1074,13 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1084,31 +1092,31 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>3</v>
       </c>
-      <c r="D11" s="20">
-        <v>2</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1120,13 +1128,13 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -1138,13 +1146,13 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -1156,13 +1164,13 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
@@ -1174,31 +1182,31 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>4</v>
       </c>
-      <c r="D16" s="20">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
@@ -1210,13 +1218,13 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
@@ -1228,13 +1236,13 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -1246,13 +1254,13 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
@@ -1264,25 +1272,25 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="20">
-        <v>6</v>
-      </c>
-      <c r="D21" s="20">
-        <v>2</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="C21" s="19">
+        <v>6</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1310,34 +1318,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>2022</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2023</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>2023</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1357,48 +1365,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
